--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">Tests Done with 1000 users, 10 resources, Resource Reserves Drawn From [50,000 – 100,000] Interval</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Overallocations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demand Intervals</t>
   </si>
   <si>
     <t xml:space="preserve">1 task</t>
@@ -79,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,6 +103,7 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -117,6 +122,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -143,25 +162,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,15 +322,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -312,7 +350,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -331,294 +369,331 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>477.623</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>477.623</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>86.373</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>474.932</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>474.932</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>38.381</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>486.521</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>486.521</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>50.526</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>423.517</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>423.517</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>36.429</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>44.689</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>5.588</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>477.623</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="L11" s="5" t="n">
+        <v>50.407</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>25.814</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>407.902</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>477.623</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>86.373</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.693</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>2.137</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>474.932</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>474.932</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>38.381</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.191</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0.526</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>486.521</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>486.521</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>50.526</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>423.517</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>423.517</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>36.429</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>44.689</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>5.588</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>50.407</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>25.814</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="F12" s="5" t="n">
         <v>407.902</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>407.902</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="G12" s="5" t="n">
         <v>26.373</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H12" s="5" t="n">
         <v>56.541</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I12" s="5" t="n">
         <v>14.519</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J12" s="5" t="n">
         <v>12.989</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K12" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L12" s="5" t="n">
         <v>83.959</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M12" s="5" t="n">
         <v>36.376</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:M8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
